--- a/Assets/StreamingAssets/Data/battle_init.xlsx
+++ b/Assets/StreamingAssets/Data/battle_init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-roomserver\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6287186C-F6F3-4ED8-BEC5-90388D4D5E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F064FE8-A76A-46C9-96CE-6669CF555729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,12 @@
   <si>
     <t>PlayerInit_Iron</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大行动点</t>
+  </si>
+  <si>
+    <t>MaxActionPoint</t>
   </si>
 </sst>
 </file>
@@ -369,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -382,12 +388,15 @@
     <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -400,8 +409,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -414,8 +426,11 @@
       <c r="D3">
         <v>100</v>
       </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>

--- a/Assets/StreamingAssets/Data/battle_init.xlsx
+++ b/Assets/StreamingAssets/Data/battle_init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-roomserver\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F064FE8-A76A-46C9-96CE-6669CF555729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F21225-53FF-4552-8FDF-15BBF929113C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="495" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -427,7 +427,7 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
